--- a/AnalizPdvBundle/Tests/testData/test.xlsx
+++ b/AnalizPdvBundle/Tests/testData/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1965" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="4755" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>текст</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>44/455//12-08-16/важо</t>
+  </si>
+  <si>
+    <t>текст 1</t>
+  </si>
+  <si>
+    <t>текст 2</t>
+  </si>
+  <si>
+    <t>текст 3</t>
+  </si>
+  <si>
+    <t>текст 4</t>
+  </si>
+  <si>
+    <t>текст 5</t>
+  </si>
+  <si>
+    <t>текст 6</t>
+  </si>
+  <si>
+    <t>текст 7</t>
+  </si>
+  <si>
+    <t>текст 8</t>
+  </si>
+  <si>
+    <t>текст 9</t>
+  </si>
+  <si>
+    <t>текст 10</t>
+  </si>
+  <si>
+    <t>текст 11</t>
+  </si>
+  <si>
+    <t>текст 12</t>
+  </si>
+  <si>
+    <t>текст 13</t>
+  </si>
+  <si>
+    <t>текст 14</t>
+  </si>
+  <si>
+    <t>текст 15</t>
+  </si>
+  <si>
+    <t>текст 16</t>
+  </si>
+  <si>
+    <t>текст 17</t>
+  </si>
+  <si>
+    <t>текст 18</t>
+  </si>
+  <si>
+    <t>текст 19</t>
+  </si>
+  <si>
+    <t>текст 20</t>
+  </si>
+  <si>
+    <t>текст 21</t>
+  </si>
+  <si>
+    <t>текст 22</t>
+  </si>
+  <si>
+    <t>текст 23</t>
+  </si>
+  <si>
+    <t>текст 24</t>
+  </si>
+  <si>
+    <t>текст 25</t>
+  </si>
+  <si>
+    <t>текст 26</t>
+  </si>
+  <si>
+    <t>текст 27</t>
+  </si>
+  <si>
+    <t>текст 28</t>
+  </si>
+  <si>
+    <t>текст 29</t>
   </si>
 </sst>
 </file>
@@ -363,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +481,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>12.11</v>
@@ -406,10 +490,490 @@
         <v>42594</v>
       </c>
       <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>13.11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42595</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0</v>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>14.11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42596</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15.11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42597</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>16.11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42598</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>17.11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42599</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>18.11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42600</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>19.11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42601</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20.11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42602</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>21.11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42603</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>22.11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42604</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>23.11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42605</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>24.11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42606</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>25.11</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42607</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>26.11</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42608</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>27.11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42609</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>28.11</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42610</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>29.11</v>
+      </c>
+      <c r="C19" s="1">
+        <v>42611</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>30.11</v>
+      </c>
+      <c r="C20" s="1">
+        <v>42612</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>31.11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>42613</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>32.11</v>
+      </c>
+      <c r="C22" s="1">
+        <v>42614</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>33.11</v>
+      </c>
+      <c r="C23" s="1">
+        <v>42615</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>34.11</v>
+      </c>
+      <c r="C24" s="1">
+        <v>42616</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>35.11</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42617</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>36.11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>42618</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>37.11</v>
+      </c>
+      <c r="C27" s="1">
+        <v>42619</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>38.11</v>
+      </c>
+      <c r="C29" s="1">
+        <v>42620</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>39.11</v>
+      </c>
+      <c r="C30" s="1">
+        <v>42621</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>40.11</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42622</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/AnalizPdvBundle/Tests/testData/test.xlsx
+++ b/AnalizPdvBundle/Tests/testData/test.xlsx
@@ -1,49 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="4755" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>текст 9</t>
+  </si>
   <si>
     <t>44/455//12-08-16/важо</t>
-  </si>
-  <si>
-    <t>текст 1</t>
-  </si>
-  <si>
-    <t>текст 2</t>
-  </si>
-  <si>
-    <t>текст 3</t>
-  </si>
-  <si>
-    <t>текст 4</t>
-  </si>
-  <si>
-    <t>текст 5</t>
-  </si>
-  <si>
-    <t>текст 6</t>
-  </si>
-  <si>
-    <t>текст 7</t>
-  </si>
-  <si>
-    <t>текст 8</t>
-  </si>
-  <si>
-    <t>текст 9</t>
   </si>
   <si>
     <t>текст 10</t>
@@ -109,14 +86,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,46 +104,35 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,9 +170,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,7 +207,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,7 +242,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,538 +415,391 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>12.11</v>
-      </c>
-      <c r="C2" s="1">
-        <v>42594</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>13.11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>42595</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>14.11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>42596</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>15.11</v>
-      </c>
-      <c r="C5" s="1">
-        <v>42597</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>16.11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>42598</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>17.11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>42599</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>18.11</v>
-      </c>
-      <c r="C8" s="1">
-        <v>42600</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>19.11</v>
-      </c>
-      <c r="C9" s="1">
-        <v>42601</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>20.11</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>42602</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>21.11</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>42603</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12">
         <v>22.11</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>42604</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13">
         <v>23.11</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>42605</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14">
         <v>24.11</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>42606</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15">
         <v>25.11</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>42607</v>
       </c>
       <c r="D15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
+        <v>7</v>
+      </c>
+      <c r="B16">
         <v>26.11</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>42608</v>
       </c>
       <c r="D16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
+        <v>8</v>
+      </c>
+      <c r="B17">
         <v>27.11</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>42609</v>
       </c>
       <c r="D17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
+        <v>9</v>
+      </c>
+      <c r="B18">
         <v>28.11</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>42610</v>
       </c>
       <c r="D18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
+        <v>10</v>
+      </c>
+      <c r="B19">
         <v>29.11</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>42611</v>
       </c>
       <c r="D19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
+        <v>11</v>
+      </c>
+      <c r="B20">
         <v>30.11</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>42612</v>
       </c>
       <c r="D20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
+        <v>12</v>
+      </c>
+      <c r="B21">
         <v>31.11</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>42613</v>
       </c>
       <c r="D21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
+        <v>13</v>
+      </c>
+      <c r="B22">
         <v>32.11</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>42614</v>
       </c>
       <c r="D22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
+        <v>14</v>
+      </c>
+      <c r="B23">
         <v>33.11</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>42615</v>
       </c>
       <c r="D23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
+        <v>15</v>
+      </c>
+      <c r="B24">
         <v>34.11</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>42616</v>
       </c>
       <c r="D24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
+        <v>16</v>
+      </c>
+      <c r="B25">
         <v>35.11</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>42617</v>
       </c>
       <c r="D25" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
+        <v>17</v>
+      </c>
+      <c r="B26">
         <v>36.11</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>42618</v>
       </c>
       <c r="D26" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
+        <v>18</v>
+      </c>
+      <c r="B27">
         <v>37.11</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>42619</v>
       </c>
       <c r="D27" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
+        <v>19</v>
+      </c>
+      <c r="B29">
         <v>38.11</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>42620</v>
       </c>
       <c r="D29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
+        <v>20</v>
+      </c>
+      <c r="B30">
         <v>39.11</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>42621</v>
       </c>
       <c r="D30" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
+        <v>21</v>
+      </c>
+      <c r="B31">
         <v>40.11</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>42622</v>
       </c>
       <c r="D31" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>28</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>